--- a/special-topics/data-handling/combination/combination-before.xlsx
+++ b/special-topics/data-handling/combination/combination-before.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectLocal\gdpt-2018\special-topics\data-handling\combination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17636ABA-5AA6-4650-B867-CFF28A17FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91773D6F-B907-4F9E-BBFA-0C37384D3306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Lớp mình có tất cả 36 bạn.</t>
   </si>
@@ -81,13 +81,16 @@
   </si>
   <si>
     <t>Có bao nhiêu cách chọn 5 bạn vào đội hình chính thức để thi đấu bóng rổ cho lớp?</t>
+  </si>
+  <si>
+    <t>Hoán vị và tổ hợp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +113,31 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF107C41"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
@@ -155,15 +183,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,13 +223,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>42335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>74082</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -692,161 +723,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="13.6328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="9.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="4"/>
+    <col min="6" max="6" width="13.6328125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3" t="s">
+      <c r="B9" s="1"/>
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3" t="s">
+      <c r="B10" s="1"/>
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="B19" s="1"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
     </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="sIWn/R0euZEv+91Ung10kJUOWhvJFo5tTsm13OdamPh/P6qeef5aJTZNk58xKVm1P4VeKSkCs/7+973qOwnYaQ==" saltValue="xkGhd9VsVdBsPV9Huh+sAg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
